--- a/list-accounts.xlsx
+++ b/list-accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VHEC\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5DE855-DC77-4CB7-BC82-13024193A766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBCD3C0-EC3A-4CCF-AC15-B44827B3C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B5B878-345C-44CC-B53A-BF19BBD8F8A7}"/>
+    <workbookView xWindow="1890" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{F5B5B878-345C-44CC-B53A-BF19BBD8F8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="133">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -394,6 +394,36 @@
   </si>
   <si>
     <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>http://10.32.4.170/login</t>
+  </si>
+  <si>
+    <t>\\10.32.9.100\004_Application_Dept\11. VHEC app\VHEC cyber security\prod</t>
+  </si>
+  <si>
+    <t>VH_00067</t>
+  </si>
+  <si>
+    <t>VH_00027</t>
   </si>
 </sst>
 </file>
@@ -441,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +481,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -499,6 +559,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FE1BC3-5C5C-4667-8C34-0F9BABA09FD6}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,9 +938,10 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,140 +960,223 @@
       <c r="G1" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="8">
+        <v>41</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="8">
+        <v>48</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="8">
+        <v>55</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="8">
+        <v>54</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="8">
+        <v>95</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1000,28 +1195,36 @@
       <c r="G8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1040,8 +1243,11 @@
       <c r="G10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1060,117 +1266,142 @@
       <c r="G11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1192,8 +1423,11 @@
       <c r="G17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1212,8 +1446,11 @@
       <c r="G18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1232,8 +1469,11 @@
       <c r="G19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1252,8 +1492,11 @@
       <c r="G20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1275,8 +1518,11 @@
       <c r="G21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1295,8 +1541,11 @@
       <c r="G22" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1318,28 +1567,36 @@
       <c r="G23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I23" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1358,8 +1615,11 @@
       <c r="G25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I25" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1381,28 +1641,34 @@
       <c r="G26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1421,8 +1687,11 @@
       <c r="G28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I28" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1441,8 +1710,11 @@
       <c r="G29" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I29" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1461,8 +1733,11 @@
       <c r="G30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I30" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1481,8 +1756,11 @@
       <c r="G31" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I31" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1501,8 +1779,11 @@
       <c r="G32" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I32" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1521,8 +1802,11 @@
       <c r="G33" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1541,8 +1825,11 @@
       <c r="G34" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1561,8 +1848,11 @@
       <c r="G35" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1581,8 +1871,11 @@
       <c r="G36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I36" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1601,8 +1894,11 @@
       <c r="G37" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I37" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1621,8 +1917,11 @@
       <c r="G38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I38" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1641,8 +1940,11 @@
       <c r="G39" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I39" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1661,8 +1963,11 @@
       <c r="G40" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I40" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1681,8 +1986,11 @@
       <c r="G41" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I41" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1701,8 +2009,11 @@
       <c r="G42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I42" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1721,8 +2032,11 @@
       <c r="G43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I43" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1741,8 +2055,11 @@
       <c r="G44" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I44" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1761,8 +2078,11 @@
       <c r="G45" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I45" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1781,8 +2101,11 @@
       <c r="G46" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I46" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1801,8 +2124,11 @@
       <c r="G47" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I47" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1821,8 +2147,11 @@
       <c r="G48" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I48" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1841,8 +2170,11 @@
       <c r="G49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I49" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1861,8 +2193,11 @@
       <c r="G50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I50" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1881,8 +2216,11 @@
       <c r="G51" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I51" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1901,8 +2239,11 @@
       <c r="G52" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I52" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1921,8 +2262,11 @@
       <c r="G53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I53" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1941,25 +2285,43 @@
       <c r="G54" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I54" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G55" t="s">
-        <v>122</v>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/list-accounts.xlsx
+++ b/list-accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBCD3C0-EC3A-4CCF-AC15-B44827B3C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5001B9C8-FD7C-4A6C-B9A2-4D8E1E5F85FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{F5B5B878-345C-44CC-B53A-BF19BBD8F8A7}"/>
+    <workbookView xWindow="7215" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{F5B5B878-345C-44CC-B53A-BF19BBD8F8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
